--- a/biology/Histoire de la zoologie et de la botanique/Sergueï_Rozanov_(botaniste)/Sergueï_Rozanov_(botaniste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sergueï_Rozanov_(botaniste)/Sergueï_Rozanov_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Rozanov_(botaniste)</t>
+          <t>Sergueï_Rozanov_(botaniste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sergueï Matveïevitch Rozanov (en russe : Сергей Матвеевич Розанов), né le 20 janvier 1840 et mort le 21 novembre 1870, est un botaniste russe qui est à la fin des années 1860 botaniste-en-chef du jardin botanique impérial de Saint-Pétersbourg.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Rozanov_(botaniste)</t>
+          <t>Sergueï_Rozanov_(botaniste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rozanov fait ses études au lycée de Mittau, puis à l'université de Saint-Pétersbourg à la faculté de physique et mathématiques dont il sort diplômé de sciences naturelles en 1863, avec le statut de candidat ès sciences. Il reçoit une bourse du ministère des propriétés d'État pour étudier pendant trois ans dans différents jardins botaniques d'Allemagne et de France. Il y publie ses premiers travaux, comme Étude du pigment et d'échange de gaz des plantes marines, publié par l'académie des sciences de Paris en 1866.
 À son retour dans la capitale impériale en 1866, Rozanov est nommé bibliothécaire à la bibliothèque botanique, puis botaniste principal du jardin botanique impérial, en 1868. Il y fonde un laboratoire physiologique auquel il se consacre sa vie durant.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Rozanov_(botaniste)</t>
+          <t>Sergueï_Rozanov_(botaniste)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Розанов С. М. О кристаллах в сердцевине Kerria japonica // Botanische Zeitung. — 1865.
 (de) Розанов С. М. О развитии плодотворной пыли у Mimoseae // Pringsheim’s Jahrbücher. — 1865.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Rozanov_(botaniste)</t>
+          <t>Sergueï_Rozanov_(botaniste)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(ru) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en russe intitulé « Розанов, Сергей Матвеевич » (voir la liste des auteurs).</t>
         </is>
